--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420960.586088465</v>
+        <v>1418265.03558346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450591.92528422</v>
+        <v>12450563.82877701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673446</v>
+        <v>603248.4937673459</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10640684.10570989</v>
+        <v>10641522.70833798</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.45987517072688</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>133.8333590606433</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>104.8814412733148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>176.1663294190251</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>109.4085843673458</v>
+        <v>97.10404444630684</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>378.4645359768339</v>
+        <v>363.769330498872</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5862358447986</v>
+        <v>136.5501586861724</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0913596900936</v>
+        <v>251.0912330341336</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>134.7678525062132</v>
       </c>
       <c r="E6" t="n">
-        <v>53.00685317755465</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6427813325164</v>
+        <v>135.6419342461042</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.80173553707391</v>
       </c>
       <c r="I6" t="n">
-        <v>30.8405965753198</v>
+        <v>30.81143153875978</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0927489854603</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3095697982953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294915657976</v>
+        <v>225.8294358364283</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.565139569424</v>
+        <v>166.5644294006316</v>
       </c>
       <c r="H7" t="n">
-        <v>149.550160564931</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>103.1570970072195</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1680991680674</v>
+        <v>199.155722862838</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8533648751332</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.063607760786</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>274.7431818839306</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.5971767234686</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.50612826256102</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>16.90511909474549</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>172.600504363561</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>288.7511433632823</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201345005</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>96.15636898111903</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292355</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>46.02947304411192</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>86.64179915749278</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>8.282546271490048</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254634</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>56.04906198892816</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465558</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9290672449205</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001829</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>83.0773672326534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,13 +1822,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>169.0035857684741</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001839</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>64.33638628053227</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>34.32106446352934</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>72.26558381700011</v>
+        <v>18.22623717053506</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>135.9022120075014</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>94.91529601901439</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>117.6579322793572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>47.4973478028577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>117.6579322793567</v>
       </c>
       <c r="E34" t="n">
-        <v>91.87204320893679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444119</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695565</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>4.019807611472697</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>254.8095967907983</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>86.80636739625353</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135499</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.1461427881764</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716356</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="C2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="E2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="F2" t="n">
-        <v>163.4173927214891</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>549.2024635036612</v>
       </c>
       <c r="V2" t="n">
-        <v>549.202463503662</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871772</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="X2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.3628934706925</v>
+        <v>35.17768229832525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652795</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C3" t="n">
-        <v>575.6493193841525</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>426.7149097229012</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
-        <v>267.4774547174457</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>120.9428967443307</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>544.973504992382</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>544.973504992382</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>355.5537199758975</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>166.133934959413</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652795</v>
+        <v>166.133934959413</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652795</v>
+        <v>166.133934959413</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636.2117764014496</v>
+        <v>466.9921397742785</v>
       </c>
       <c r="C4" t="n">
-        <v>636.2117764014496</v>
+        <v>466.9921397742785</v>
       </c>
       <c r="D4" t="n">
-        <v>636.2117764014496</v>
+        <v>316.8755003619428</v>
       </c>
       <c r="E4" t="n">
-        <v>636.2117764014496</v>
+        <v>316.8755003619428</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035392</v>
+        <v>169.9855528640324</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>169.9855528640324</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.2117764014496</v>
+        <v>648.6406046045182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>426.7456402665054</v>
+        <v>411.9385976003521</v>
       </c>
       <c r="C5" t="n">
-        <v>426.7456402665054</v>
+        <v>411.9385976003521</v>
       </c>
       <c r="D5" t="n">
-        <v>426.7456402665054</v>
+        <v>411.9385976003521</v>
       </c>
       <c r="E5" t="n">
-        <v>426.7456402665054</v>
+        <v>411.9385976003521</v>
       </c>
       <c r="F5" t="n">
-        <v>419.8001395173019</v>
+        <v>404.9930968511486</v>
       </c>
       <c r="G5" t="n">
-        <v>37.51272943969191</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="H5" t="n">
-        <v>37.51272943969191</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="I5" t="n">
-        <v>37.51272943969191</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="J5" t="n">
-        <v>125.3646689521499</v>
+        <v>125.5342965407785</v>
       </c>
       <c r="K5" t="n">
-        <v>307.7704712613127</v>
+        <v>308.1394738743161</v>
       </c>
       <c r="L5" t="n">
-        <v>570.9627603081371</v>
+        <v>571.5791052688229</v>
       </c>
       <c r="M5" t="n">
-        <v>895.4843310418053</v>
+        <v>896.3758920220552</v>
       </c>
       <c r="N5" t="n">
-        <v>1229.870808445634</v>
+        <v>1231.042038728374</v>
       </c>
       <c r="O5" t="n">
-        <v>1532.287215726475</v>
+        <v>1533.722529801069</v>
       </c>
       <c r="P5" t="n">
-        <v>1755.891621830858</v>
+        <v>1757.552325312004</v>
       </c>
       <c r="Q5" t="n">
-        <v>1875.636471984596</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="R5" t="n">
-        <v>1875.636471984596</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="S5" t="n">
-        <v>1737.67057719187</v>
+        <v>1739.536980305135</v>
       </c>
       <c r="T5" t="n">
-        <v>1737.67057719187</v>
+        <v>1739.536980305135</v>
       </c>
       <c r="U5" t="n">
-        <v>1484.04294114127</v>
+        <v>1485.909472189849</v>
       </c>
       <c r="V5" t="n">
-        <v>1152.980053797699</v>
+        <v>1154.846584846278</v>
       </c>
       <c r="W5" t="n">
-        <v>800.2113985275853</v>
+        <v>802.0779295761638</v>
       </c>
       <c r="X5" t="n">
-        <v>426.7456402665054</v>
+        <v>802.0779295761638</v>
       </c>
       <c r="Y5" t="n">
-        <v>426.7456402665054</v>
+        <v>411.9385976003521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.7545915394643</v>
+        <v>744.3546283441426</v>
       </c>
       <c r="C6" t="n">
-        <v>405.7545915394643</v>
+        <v>744.3546283441426</v>
       </c>
       <c r="D6" t="n">
-        <v>405.7545915394643</v>
+        <v>608.2254843984726</v>
       </c>
       <c r="E6" t="n">
-        <v>352.2123156025405</v>
+        <v>448.9880293930171</v>
       </c>
       <c r="F6" t="n">
-        <v>205.6777576294255</v>
+        <v>302.453471419902</v>
       </c>
       <c r="G6" t="n">
-        <v>68.66484719254019</v>
+        <v>165.4414166258574</v>
       </c>
       <c r="H6" t="n">
-        <v>68.66484719254019</v>
+        <v>68.6719867904292</v>
       </c>
       <c r="I6" t="n">
-        <v>37.51272943969191</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="J6" t="n">
-        <v>179.9939456854862</v>
+        <v>185.9916966408916</v>
       </c>
       <c r="K6" t="n">
-        <v>315.4161455214096</v>
+        <v>321.549314497136</v>
       </c>
       <c r="L6" t="n">
-        <v>543.8305464934253</v>
+        <v>550.1458017090951</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7362469887576</v>
+        <v>836.263988257988</v>
       </c>
       <c r="N6" t="n">
-        <v>1137.617665552985</v>
+        <v>1144.363516749342</v>
       </c>
       <c r="O6" t="n">
-        <v>1397.049218823131</v>
+        <v>1403.994597991576</v>
       </c>
       <c r="P6" t="n">
-        <v>1585.9328459689</v>
+        <v>1593.038363925642</v>
       </c>
       <c r="Q6" t="n">
-        <v>1870.253867027666</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="R6" t="n">
-        <v>1875.636471984596</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.128644726555</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="T6" t="n">
-        <v>1538.866453011105</v>
+        <v>1877.466433523491</v>
       </c>
       <c r="U6" t="n">
-        <v>1310.755855469895</v>
+        <v>1649.355892274574</v>
       </c>
       <c r="V6" t="n">
-        <v>1075.603747238153</v>
+        <v>1414.203784042831</v>
       </c>
       <c r="W6" t="n">
-        <v>821.3663905099511</v>
+        <v>1159.966427314629</v>
       </c>
       <c r="X6" t="n">
-        <v>613.5148903044183</v>
+        <v>952.1149271090965</v>
       </c>
       <c r="Y6" t="n">
-        <v>405.7545915394643</v>
+        <v>744.3546283441426</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.0202012998683</v>
+        <v>355.9128664672819</v>
       </c>
       <c r="C7" t="n">
-        <v>461.0202012998683</v>
+        <v>355.9128664672819</v>
       </c>
       <c r="D7" t="n">
-        <v>461.0202012998683</v>
+        <v>205.7962270549462</v>
       </c>
       <c r="E7" t="n">
-        <v>461.0202012998683</v>
+        <v>205.7962270549462</v>
       </c>
       <c r="F7" t="n">
-        <v>461.0202012998683</v>
+        <v>205.7962270549462</v>
       </c>
       <c r="G7" t="n">
-        <v>292.7725855731773</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7118173257723</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="I7" t="n">
-        <v>37.51272943969191</v>
+        <v>37.54932867046983</v>
       </c>
       <c r="J7" t="n">
-        <v>44.8859454780923</v>
+        <v>44.97225155316384</v>
       </c>
       <c r="K7" t="n">
-        <v>186.8392411052405</v>
+        <v>187.0072307948258</v>
       </c>
       <c r="L7" t="n">
-        <v>424.0170213018163</v>
+        <v>424.2895378952949</v>
       </c>
       <c r="M7" t="n">
-        <v>684.476858834968</v>
+        <v>684.8595843928485</v>
       </c>
       <c r="N7" t="n">
-        <v>944.1781600097959</v>
+        <v>944.6684740092342</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.0380500039</v>
+        <v>1168.627739342811</v>
       </c>
       <c r="P7" t="n">
-        <v>1336.068176656005</v>
+        <v>1336.742898765454</v>
       </c>
       <c r="Q7" t="n">
-        <v>1368.968446508016</v>
+        <v>1369.702040900195</v>
       </c>
       <c r="R7" t="n">
-        <v>1368.968446508016</v>
+        <v>1369.702040900195</v>
       </c>
       <c r="S7" t="n">
-        <v>1167.788548358453</v>
+        <v>1168.534644069045</v>
       </c>
       <c r="T7" t="n">
-        <v>943.6942404037725</v>
+        <v>1168.534644069045</v>
       </c>
       <c r="U7" t="n">
-        <v>943.6942404037725</v>
+        <v>1168.534644069045</v>
       </c>
       <c r="V7" t="n">
-        <v>689.0097521978856</v>
+        <v>913.8501558631586</v>
       </c>
       <c r="W7" t="n">
-        <v>689.0097521978856</v>
+        <v>804.6949965088294</v>
       </c>
       <c r="X7" t="n">
-        <v>461.0202012998683</v>
+        <v>576.705445610812</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.0202012998683</v>
+        <v>355.9128664672819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>926.0589393552737</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>926.0589393552737</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2042.432684862279</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1689.664029592165</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1316.198271331085</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>926.0589393552737</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>342.1642758038115</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>342.1642758038115</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>342.1642758038115</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>342.1642758038115</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>342.1642758038115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2125.660783237689</v>
+        <v>1919.364309928195</v>
       </c>
       <c r="C11" t="n">
-        <v>1756.698266297278</v>
+        <v>1550.401792987783</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1192.136094381032</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>806.3478417827882</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>806.3478417827882</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>391.8530338894382</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469176</v>
+        <v>100.1852123103652</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469176</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386827</v>
+        <v>317.3880320746704</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420312</v>
+        <v>723.223450194702</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1263.599934653011</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1896.542330458662</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2544.340204328183</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687098</v>
+        <v>3142.702105990704</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985628</v>
+        <v>3618.88914460885</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3928.313032718591</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234588</v>
+        <v>4022.893342111691</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455658</v>
+        <v>3925.765696676217</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455658</v>
+        <v>3722.316578060828</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088266</v>
+        <v>3468.832312715596</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744695</v>
+        <v>3422.337895499322</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474581</v>
+        <v>3069.569240229208</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.800115213501</v>
+        <v>2696.103481968128</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.660783237689</v>
+        <v>2305.964149992316</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.82407519727427</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469176</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792127</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="K12" t="n">
-        <v>477.16213223765</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649594</v>
+        <v>433.8943484671843</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>957.9225392857946</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259915</v>
+        <v>1510.228841936574</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1993.261411868774</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2361.604567899689</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>766.34540188659</v>
+        <v>855.5542765251801</v>
       </c>
       <c r="C13" t="n">
-        <v>597.4092189586831</v>
+        <v>686.6180935972732</v>
       </c>
       <c r="D13" t="n">
-        <v>540.7940048284526</v>
+        <v>686.6180935972732</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460594</v>
+        <v>538.7050000148801</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>391.8150525169697</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469176</v>
+        <v>224.3713263242214</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469176</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469176</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>143.5350566283898</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>377.0270927076812</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288891</v>
+        <v>731.3429449977114</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1115.308455583782</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1495.578740955083</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1830.803602510214</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2094.125701226114</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2193.001193167694</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2193.001193167694</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>2193.001193167694</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1972.34168594895</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1683.252952370914</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.203615897321</v>
+        <v>1428.568464165027</v>
       </c>
       <c r="W13" t="n">
-        <v>1168.78644586036</v>
+        <v>1139.151294128066</v>
       </c>
       <c r="X13" t="n">
-        <v>1168.78644586036</v>
+        <v>1139.151294128066</v>
       </c>
       <c r="Y13" t="n">
-        <v>947.9938667168298</v>
+        <v>1037.20274135542</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364392</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1424574638374</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D16" t="n">
-        <v>260.0258180515017</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0258180515017</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
         <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1447.033418141246</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>782.710914207103</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>613.7747312791961</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>613.774731279196</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>964.3593790373427</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>964.3593790373427</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>846.8182155057104</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>696.7015760933746</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235166</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>2190.286651548252</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1935.602163342365</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1646.184993305405</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072718</v>
+        <v>1052.829365488566</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>883.8931825606594</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>733.7765431483235</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>585.8634495659305</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>438.9735020680203</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>271.7774027829003</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.259960360353</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072718</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851669</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>527.77225215726</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154851</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E28" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
         <v>261.012762333092</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154066</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511904</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.646179883602</v>
+        <v>696.7084350851665</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556951</v>
+        <v>527.7722521572596</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433594</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>878.3568999154062</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362668</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876695</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597626</v>
+        <v>847.6442739835333</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597626</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782968</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614394</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179092</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876692</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876692</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753335</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>430.7826650753335</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>430.7826650753335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>263.5865657902134</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>983.340348461439</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179089</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>835.3959446011264</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121646</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121646</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121646</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121646</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270445</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.91370857612216</v>
+        <v>15.8142579204754</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.0758079547514</v>
+        <v>116.0171422436675</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.03210144397049</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.18099370047486</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>182.082537257122</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>281.722785426023</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>92.5664110292842</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>88.63818461247379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>77.39811087628559</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389548</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>117.6555861071743</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613728925</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.16945386597443</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>56.70606962056303</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729028</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.0975763660369</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729028</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>213.918890572244</v>
+        <v>267.9592143778854</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.34460909112638</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.3794168272095</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>30.95754073885519</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>220.7351665485983</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2123075861795</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>30.95754073885564</v>
       </c>
       <c r="E34" t="n">
-        <v>54.56191943763239</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>31.71340154579275</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.48834544997035</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2980548978892</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.15987277746899e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194529</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>945511.167655574</v>
+        <v>945517.0679220887</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841996.9046324262</v>
+        <v>852047.2677493693</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915823.5663580436</v>
+        <v>915823.5663580438</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165157</v>
+        <v>915823.5663580437</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165158</v>
+        <v>915823.5663580438</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920848.7479165159</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.045203982</v>
+        <v>466243.5802689502</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737692</v>
+        <v>501674.8572737694</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>311475.5486359375</v>
+        <v>311981.9644455529</v>
       </c>
       <c r="D3" t="n">
-        <v>176113.3450239624</v>
+        <v>175633.9610741921</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357059</v>
+        <v>348407.042397962</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051386</v>
+        <v>143852.0300046415</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854442</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>72419.11656261137</v>
+        <v>72536.85994794712</v>
       </c>
       <c r="L3" t="n">
-        <v>43449.57815826764</v>
+        <v>43333.79145930749</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456796</v>
+        <v>90993.97560824234</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848937</v>
+        <v>37822.10612283038</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307133</v>
       </c>
       <c r="C4" t="n">
-        <v>194308.5192862457</v>
+        <v>194173.7264522433</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13507.6871545367</v>
+        <v>13520.28235921769</v>
       </c>
       <c r="F4" t="n">
         <v>13600.27549061739</v>
       </c>
       <c r="G4" t="n">
+        <v>13600.27549061739</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13600.27549061739</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184283</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>79374.38120560546</v>
+        <v>79410.78191609004</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>88006.19635166977</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412662.4451979951</v>
+        <v>-412662.4451979946</v>
       </c>
       <c r="C6" t="n">
-        <v>-72007.34296261152</v>
+        <v>-72415.36664870889</v>
       </c>
       <c r="D6" t="n">
-        <v>98944.75800343163</v>
+        <v>99424.14195320212</v>
       </c>
       <c r="E6" t="n">
-        <v>35871.5168515923</v>
+        <v>16122.42905651581</v>
       </c>
       <c r="F6" t="n">
-        <v>221411.1061641748</v>
+        <v>244034.5182691065</v>
       </c>
       <c r="G6" t="n">
-        <v>378570.050634925</v>
+        <v>387886.5482737479</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.2868705038</v>
+        <v>387886.5482737479</v>
       </c>
       <c r="I6" t="n">
-        <v>389737.2868705038</v>
+        <v>378883.6354876197</v>
       </c>
       <c r="J6" t="n">
-        <v>340672.3421419595</v>
+        <v>340637.6042165236</v>
       </c>
       <c r="K6" t="n">
-        <v>317318.1703078925</v>
+        <v>317165.6889971211</v>
       </c>
       <c r="L6" t="n">
-        <v>346287.7087122363</v>
+        <v>346368.7574857606</v>
       </c>
       <c r="M6" t="n">
-        <v>304807.6925259358</v>
+        <v>298708.5733368258</v>
       </c>
       <c r="N6" t="n">
-        <v>345954.8803120144</v>
+        <v>351880.4428222377</v>
       </c>
       <c r="O6" t="n">
-        <v>386713.9888932792</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="P6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450682</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6929739192482</v>
+        <v>791.0867947950906</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1232.028328053765</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>468.9091179961489</v>
+        <v>469.3666083808728</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808647</v>
+        <v>1005.723335527923</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>242.2230330063436</v>
+        <v>242.6168538821863</v>
       </c>
       <c r="D3" t="n">
-        <v>143.3719181982909</v>
+        <v>142.9780973224487</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770163</v>
+        <v>297.9634359362254</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>126.0127206626212</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>9.93445162528792</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>281.383530829829</v>
+        <v>281.8410212145532</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6757141038898</v>
+        <v>171.2182237191662</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086082</v>
+        <v>365.1385034278837</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>154.4219547980842</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>281.3835308298288</v>
+        <v>281.8410212145532</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038901</v>
+        <v>171.2182237191662</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708608</v>
+        <v>365.1385034278837</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>154.4219547980842</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>281.383530829829</v>
+        <v>281.8410212145532</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038898</v>
+        <v>171.2182237191662</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086082</v>
+        <v>365.1385034278837</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>154.4219547980842</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.6379580593311</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>193.9188994094916</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>31.2823480924605</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>19.2432683729761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>109.176068984749</v>
+        <v>121.4806089057879</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>33.65953631651519</v>
+        <v>48.35315859497626</v>
       </c>
       <c r="H5" t="n">
-        <v>306.9212969131521</v>
+        <v>306.9050829712638</v>
       </c>
       <c r="I5" t="n">
-        <v>87.93039860750412</v>
+        <v>87.86936230874667</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1812425557635</v>
+        <v>209.1743120999484</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>12.67721305842551</v>
       </c>
       <c r="E6" t="n">
-        <v>104.6382272778463</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.80991660847585</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.077014726883</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3061554456076</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5438465187576</v>
       </c>
       <c r="I7" t="n">
-        <v>9.414486809794909</v>
+        <v>112.5502271045999</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1824495902088</v>
+        <v>113.1505178188659</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8503305175652</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241256277089</v>
+        <v>286.2412175406094</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.459390575805</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>132.1328638577808</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>143.1550817466663</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.3258519193763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.5288435518237</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.045461874525414e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.184343527678239e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.17866522178592</v>
+        <v>3.180248421286794</v>
       </c>
       <c r="H5" t="n">
-        <v>32.55350520261506</v>
+        <v>32.56971914450339</v>
       </c>
       <c r="I5" t="n">
-        <v>122.5454909629018</v>
+        <v>122.6065272616592</v>
       </c>
       <c r="J5" t="n">
-        <v>269.785237367553</v>
+        <v>269.9196094461902</v>
       </c>
       <c r="K5" t="n">
-        <v>404.338136205751</v>
+        <v>404.5395251192603</v>
       </c>
       <c r="L5" t="n">
-        <v>501.617211986982</v>
+        <v>501.8670527422161</v>
       </c>
       <c r="M5" t="n">
-        <v>558.1457996249173</v>
+        <v>558.4237956042751</v>
       </c>
       <c r="N5" t="n">
-        <v>567.1771821863166</v>
+        <v>567.4596764312563</v>
       </c>
       <c r="O5" t="n">
-        <v>535.5693298871828</v>
+        <v>535.8360811920857</v>
       </c>
       <c r="P5" t="n">
-        <v>457.0960322243429</v>
+        <v>457.3236982915679</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.2600839691345</v>
+        <v>343.4310517042345</v>
       </c>
       <c r="R5" t="n">
-        <v>199.67182923801</v>
+        <v>199.7712798936567</v>
       </c>
       <c r="S5" t="n">
-        <v>72.43383374144672</v>
+        <v>72.46991090007289</v>
       </c>
       <c r="T5" t="n">
-        <v>13.91460700836787</v>
+        <v>13.92153746418295</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2542932177428736</v>
+        <v>0.2544198737029434</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.700735830694232</v>
+        <v>1.701582917106421</v>
       </c>
       <c r="H6" t="n">
-        <v>16.42552762802061</v>
+        <v>16.43370869942255</v>
       </c>
       <c r="I6" t="n">
-        <v>58.55603627609528</v>
+        <v>58.5852013126553</v>
       </c>
       <c r="J6" t="n">
-        <v>160.6822391622125</v>
+        <v>160.762270251708</v>
       </c>
       <c r="K6" t="n">
-        <v>274.6315398187261</v>
+        <v>274.7683256978382</v>
       </c>
       <c r="L6" t="n">
-        <v>369.2759969233244</v>
+        <v>369.4599224182166</v>
       </c>
       <c r="M6" t="n">
-        <v>430.9276707859902</v>
+        <v>431.1423031633243</v>
       </c>
       <c r="N6" t="n">
-        <v>442.3330439663915</v>
+        <v>442.5533570240951</v>
       </c>
       <c r="O6" t="n">
-        <v>404.648318454693</v>
+        <v>404.8498618608422</v>
       </c>
       <c r="P6" t="n">
-        <v>324.7659499858135</v>
+        <v>324.9277063376288</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.097436914583</v>
+        <v>217.2055667520407</v>
       </c>
       <c r="R6" t="n">
-        <v>105.5948088566121</v>
+        <v>105.6474025199935</v>
       </c>
       <c r="S6" t="n">
-        <v>31.59042211837749</v>
+        <v>31.60615637695478</v>
       </c>
       <c r="T6" t="n">
-        <v>6.855158896526309</v>
+        <v>6.858573249214038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1118905151772522</v>
+        <v>0.1119462445464751</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42583978903471</v>
+        <v>1.426549957827212</v>
       </c>
       <c r="H7" t="n">
-        <v>12.67701194250861</v>
+        <v>12.68332598868195</v>
       </c>
       <c r="I7" t="n">
-        <v>42.87889111024383</v>
+        <v>42.90024782265836</v>
       </c>
       <c r="J7" t="n">
-        <v>100.806873084754</v>
+        <v>100.8570820183839</v>
       </c>
       <c r="K7" t="n">
-        <v>165.6566591260326</v>
+        <v>165.7391678275615</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9834900897604</v>
+        <v>212.0890728209658</v>
       </c>
       <c r="M7" t="n">
-        <v>223.5068680211409</v>
+        <v>223.6181902074056</v>
       </c>
       <c r="N7" t="n">
-        <v>218.1923742620117</v>
+        <v>218.3010494555044</v>
       </c>
       <c r="O7" t="n">
-        <v>201.5359730901061</v>
+        <v>201.6363522208864</v>
       </c>
       <c r="P7" t="n">
-        <v>172.4488413937979</v>
+        <v>172.5347330812111</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.3946390618065</v>
+        <v>119.4541060140587</v>
       </c>
       <c r="R7" t="n">
-        <v>64.11094178696065</v>
+        <v>64.14287355830355</v>
       </c>
       <c r="S7" t="n">
-        <v>24.84849886890489</v>
+        <v>24.86087517413423</v>
       </c>
       <c r="T7" t="n">
-        <v>6.092224553148303</v>
+        <v>6.095258910716269</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07777307940189335</v>
+        <v>0.07781181588148439</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>4.952877700718648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>50.72365875248487</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>190.9458175569559</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>420.3693037513697</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>630.0246168227902</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>781.6012477561587</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>869.681986566314</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>883.7543503334809</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>834.5041726969598</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>712.2300044604681</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>534.8550718034813</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>311.121203867768</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>112.8637006051263</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.68122213489589</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3962302160574918</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.650023196191117</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.59364507900368</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>91.23983372850995</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202552</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256412</v>
+        <v>495.5609268757838</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>671.4554387893016</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147137</v>
+        <v>689.2268662760396</v>
       </c>
       <c r="O12" t="n">
-        <v>195.7666705910908</v>
+        <v>630.5079312446469</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205468</v>
+        <v>506.038201384951</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>338.273136412045</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>49.22301857837444</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605103</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.174343631328363</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.221690427637936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.75284762027185</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>66.81229031478449</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>157.0735132340021</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>258.1200333201165</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>330.3047750326438</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>348.2600731250993</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>339.9792269857218</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>314.0258433537695</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>268.7033586299553</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>186.0362775361185</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>99.8952805008839</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.71800499801747</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>9.492677281725724</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1211831142347966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,7 +32090,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197783</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.73933284086667</v>
+        <v>88.87370491950395</v>
       </c>
       <c r="K5" t="n">
-        <v>184.2482851607705</v>
+        <v>184.4496740742798</v>
       </c>
       <c r="L5" t="n">
-        <v>265.8507970169948</v>
+        <v>266.1006377722289</v>
       </c>
       <c r="M5" t="n">
-        <v>327.7995663976446</v>
+        <v>328.0775623770024</v>
       </c>
       <c r="N5" t="n">
-        <v>337.7641185897257</v>
+        <v>338.0466128346654</v>
       </c>
       <c r="O5" t="n">
-        <v>305.471118465496</v>
+        <v>305.7378697703989</v>
       </c>
       <c r="P5" t="n">
-        <v>225.8630364690733</v>
+        <v>226.0907025362984</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.954394094685</v>
+        <v>121.125361829785</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>143.9204204502973</v>
+        <v>149.9417858287088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.7901008443671</v>
+        <v>136.9268867234792</v>
       </c>
       <c r="L6" t="n">
-        <v>230.7216171434502</v>
+        <v>230.9055426383425</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7936368639719</v>
+        <v>289.008269241306</v>
       </c>
       <c r="N6" t="n">
-        <v>310.9913318830583</v>
+        <v>311.2116449407617</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0520740102485</v>
+        <v>262.2536174163978</v>
       </c>
       <c r="P6" t="n">
-        <v>190.7915425714833</v>
+        <v>190.9532989232986</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.1929505644106</v>
+        <v>287.3010804018683</v>
       </c>
       <c r="R6" t="n">
-        <v>5.436974703968957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.447692968081199</v>
+        <v>7.497901901711131</v>
       </c>
       <c r="K7" t="n">
-        <v>143.3871673001497</v>
+        <v>143.4696760016787</v>
       </c>
       <c r="L7" t="n">
-        <v>239.5735153500765</v>
+        <v>239.6790980812819</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0907449829814</v>
+        <v>263.2020671692462</v>
       </c>
       <c r="N7" t="n">
-        <v>262.3245466412403</v>
+        <v>262.433221834733</v>
       </c>
       <c r="O7" t="n">
-        <v>226.1211010041458</v>
+        <v>226.2214801349261</v>
       </c>
       <c r="P7" t="n">
-        <v>169.7274006586914</v>
+        <v>169.8132923461046</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.23259581011209</v>
+        <v>33.29206276236428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676415</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>412.3780932933487</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>239.3233992246834</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>409.9347657778097</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>545.8348327861715</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>639.3357533390413</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>654.34128673689</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>604.4059612752731</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>480.9970087051985</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>312.5493819290318</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>95.53566605363591</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458962</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>427.563441845767</v>
+        <v>357.0065470959096</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>529.3214048672833</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313804</v>
+        <v>557.8851541927063</v>
       </c>
       <c r="O12" t="n">
-        <v>53.17042614664631</v>
+        <v>487.9116868002025</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>372.0637939706208</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211629</v>
+        <v>198.2913623260235</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>63.71433311732929</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>235.8505414942337</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>357.8948002929599</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>387.8439500869399</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>384.1113993649504</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>338.6109712678091</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>265.9819178948488</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>99.87423428442408</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,7 +35738,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753338</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295452</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.626132989904</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
